--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed1/result_data_KNN.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>6.814</v>
+        <v>7.593000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.054</v>
+        <v>5.130000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.524</v>
+        <v>-13.208</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.67</v>
+        <v>-13.173</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,13 +703,13 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.848</v>
+        <v>5.952</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.464</v>
+        <v>-8.038</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.65</v>
+        <v>-7.742</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.63</v>
+        <v>-12.132</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.45</v>
+        <v>-12.961</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.83</v>
+        <v>-12.223</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.52</v>
+        <v>5.613</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.452</v>
+        <v>5.708</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.25</v>
+        <v>6.648000000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,13 +1012,13 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-10.84</v>
+        <v>-12.16</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>16.964</v>
+        <v>17.032</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.254</v>
+        <v>-7.76</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.870000000000001</v>
+        <v>9.317</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.106</v>
+        <v>-13.379</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>16.692</v>
+        <v>16.622</v>
       </c>
     </row>
     <row r="44">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.714</v>
+        <v>-13.03</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.5</v>
+        <v>-8.372</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.298</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="49">
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.692</v>
+        <v>-13.018</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.514000000000001</v>
+        <v>-8.386000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.922</v>
+        <v>-11.276</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.462000000000001</v>
+        <v>5.486</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.144</v>
+        <v>5.093000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>4.936</v>
+        <v>4.971</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.29</v>
+        <v>-10.875</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.002</v>
+        <v>-11.395</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.58</v>
+        <v>17.386</v>
       </c>
     </row>
     <row r="71">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.802</v>
+        <v>16.881</v>
       </c>
     </row>
     <row r="74">
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.048</v>
+        <v>-12.117</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.328</v>
+        <v>-14.098</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.906</v>
+        <v>16.677</v>
       </c>
     </row>
     <row r="88">
@@ -1998,13 +1998,13 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.688</v>
+        <v>-11.728</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>16.512</v>
+        <v>17.335</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.214</v>
+        <v>-7.567</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.06</v>
+        <v>-12.173</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.539999999999999</v>
+        <v>-8.434000000000001</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>5.942</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.648</v>
+        <v>16.547</v>
       </c>
     </row>
     <row r="102">
